--- a/biology/Botanique/Stachyphrynium_placentarium/Stachyphrynium_placentarium.xlsx
+++ b/biology/Botanique/Stachyphrynium_placentarium/Stachyphrynium_placentarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dong
 Stachyphrynium placentarium, ou « la dong », est une espèce de plantes monocotylédones de la famille des Marantaceae, originaire d'Asie du Sud.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stachyphrynium placentarium est une plante herbacée, à rhizome rampant, haute de 1 à 2 m. Les feuilles peu nombreuses (2 ou 3) peuvent atteindre 55 cm de long et 23 cm de large[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stachyphrynium placentarium est une plante herbacée, à rhizome rampant, haute de 1 à 2 m. Les feuilles peu nombreuses (2 ou 3) peuvent atteindre 55 cm de long et 23 cm de large,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cultivées et commercialisées sous le nom de « la dong » les feuilles sont utilisées comme papillotes pour emballer des aliments pour la cuisson[3],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultivées et commercialisées sous le nom de « la dong » les feuilles sont utilisées comme papillotes pour emballer des aliments pour la cuisson,.
 </t>
         </is>
       </c>
